--- a/public/templates/Form-A-Themeplate.xlsx
+++ b/public/templates/Form-A-Themeplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OJT\Desktop\Projects\Hemis\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643884DF-74F2-4900-9FDB-B1912CB9BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F8D46-A65D-46E0-B2C9-A7F40A9E940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1409E611-1083-4AAA-A278-1A90104EBD13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1409E611-1083-4AAA-A278-1A90104EBD13}"/>
   </bookViews>
   <sheets>
     <sheet name="FORM A1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
-  <si>
-    <t>FORM A1:  SUC INSTITUTIONAL PROFILE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
   <si>
     <t>DATA ITEMS</t>
   </si>
@@ -101,9 +98,6 @@
     <t>Highest Educational Attainment of the Head</t>
   </si>
   <si>
-    <t>FORM A2:  CAPSULE PROFILE OF THE SUC AND ITS CAMPUSES</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -441,29 +435,19 @@
   </si>
   <si>
     <t>SUC-NF-FORM-A</t>
-  </si>
-  <si>
-    <t>HEMIS DATA COLLECTION 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -491,6 +475,27 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -575,93 +580,85 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,301 +976,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5BF25A-3931-43C9-9AEE-FBB0ADD535A4}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="A5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="A6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14"/>
+      <c r="A8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="A9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="A10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="14"/>
+      <c r="A11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="A13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="14"/>
+      <c r="B14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="14"/>
+      <c r="A17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14"/>
+      <c r="A18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="14"/>
+      <c r="A19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="14"/>
+      <c r="A20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="14"/>
+      <c r="A21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="14"/>
+      <c r="B22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="19">
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Institutional Name. The input should have 2 to 255 characters. UP Diliman" sqref="C6" xr:uid="{16454ECB-4396-4BF0-953C-3E3EA8AAF355}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Institutional Name. The input should have 2 to 255 characters. UP Diliman" sqref="C3" xr:uid="{16454ECB-4396-4BF0-953C-3E3EA8AAF355}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Education. Please choose one from the list. e.g. 50 - Baccalaureate Degree" sqref="C25" xr:uid="{D1AAB007-4DF2-4F84-A1A5-104D0C492B5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Education. Please choose one from the list. e.g. 50 - Baccalaureate Degree" sqref="C22" xr:uid="{D1AAB007-4DF2-4F84-A1A5-104D0C492B5A}">
       <formula1>"50 - Baccalaureate Degree,60 - Post-Grad Certificate or Diploma Program,70 - MD / LLB or equivalent,80 - Masters Degree or equivalent,90 - Doctorate Degree or equivalent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Position Title. Please choose one from the list. e.g. 10 - Director" sqref="C24" xr:uid="{4EAE9D29-F7BE-4EA3-B39C-A2E271FDD7B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Position Title. Please choose one from the list. e.g. 10 - Director" sqref="C21" xr:uid="{4EAE9D29-F7BE-4EA3-B39C-A2E271FDD7B7}">
       <formula1>"01 - President,02 - Chancellor,03 - Executive Director,04 - Dean,05 - Rector,06 - Head,07 - Administrator,08 - Principal,09 - Managing Director,10 - Director,11 - Chair,12 - Others[OIC etc],99 - Not known or not indicated"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Full Name. The input should have 2 to 255 characters. e.g. Lui, Ann G." sqref="C23" xr:uid="{657690D7-339C-4B67-A0FC-8DBCC0A97EE2}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Full Name. The input should have 2 to 255 characters. e.g. Lui, Ann G." sqref="C20" xr:uid="{657690D7-339C-4B67-A0FC-8DBCC0A97EE2}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year College. The data should be between1582 and 2019." sqref="C21" xr:uid="{00266910-8337-4B41-906D-F450896554E3}">
+    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year College. The data should be between1582 and 2019." sqref="C18" xr:uid="{00266910-8337-4B41-906D-F450896554E3}">
       <formula1>1582</formula1>
       <formula2>2019</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year Approved. The data should be between1582 and 2019." sqref="C20" xr:uid="{264F2388-EAC1-40D4-9503-7BB16BB60DD1}">
+    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year Approved. The data should be between1582 and 2019." sqref="C17" xr:uid="{264F2388-EAC1-40D4-9503-7BB16BB60DD1}">
       <formula1>1582</formula1>
       <formula2>2019</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Registration. The input should have 2 to 100 characters. e.g. 102897" sqref="C19" xr:uid="{E5FD9A3E-24A0-4B5C-8986-EB29EA31A339}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Registration. The input should have 2 to 100 characters. e.g. 102897" sqref="C16" xr:uid="{E5FD9A3E-24A0-4B5C-8986-EB29EA31A339}">
       <formula1>2</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year Established. The data should be between1582 and 2019." sqref="C18" xr:uid="{4290E348-03A8-4BDD-9912-0D0C8E4CB28B}">
+    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year Established. The data should be between1582 and 2019." sqref="C15" xr:uid="{4290E348-03A8-4BDD-9912-0D0C8E4CB28B}">
       <formula1>1582</formula1>
       <formula2>2019</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Web Page. The input should have 2 to 255 characters. e.g. www.up.edu.ph" sqref="C17" xr:uid="{5F591789-F841-47FC-B8C0-4BE2BE264890}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Web Page. The input should have 2 to 255 characters. e.g. www.up.edu.ph" sqref="C14" xr:uid="{5F591789-F841-47FC-B8C0-4BE2BE264890}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Email. The input should have 2 to 255 characters. e.g. email@up.edu.ph" sqref="C16" xr:uid="{D1D6CB51-81C7-4300-AA1C-E1B244AFA06D}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Email. The input should have 2 to 255 characters. e.g. email@up.edu.ph" sqref="C13" xr:uid="{D1D6CB51-81C7-4300-AA1C-E1B244AFA06D}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Head Tel. Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C15" xr:uid="{62D20E6C-7EBE-45A5-B293-68E00F3F7699}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Head Tel. Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C12" xr:uid="{62D20E6C-7EBE-45A5-B293-68E00F3F7699}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Fax Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C14" xr:uid="{B9AA8AA8-4188-4F30-B323-94A024B418A2}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Fax Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C11" xr:uid="{B9AA8AA8-4188-4F30-B323-94A024B418A2}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Telephone Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C13" xr:uid="{95A7ADD3-1348-4B3C-8604-8132CF627C62}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Telephone Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C10" xr:uid="{95A7ADD3-1348-4B3C-8604-8132CF627C62}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Zip Code. The input should have exactly 4 characters. e.g. 1101" sqref="C12" xr:uid="{0DEFAA48-CD0B-47FC-B702-45D42EFD9FC5}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Zip Code. The input should have exactly 4 characters. e.g. 1101" sqref="C9" xr:uid="{0DEFAA48-CD0B-47FC-B702-45D42EFD9FC5}">
       <formula1>4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Region. Please choose one from the list. e.g. 5 - Region V" sqref="C11" xr:uid="{8A818CC2-EA5F-4629-8D77-EFAB8567CB77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Region. Please choose one from the list. e.g. 5 - Region V" sqref="C8" xr:uid="{8A818CC2-EA5F-4629-8D77-EFAB8567CB77}">
       <formula1>"1 - Region I,2 - Region II,3 - Region III,4A - Region IV-A,4B - Region IV-B,5 - Region V,6 - Region VI,7 - Region VII,8 - Region VIII,9 - Region IX,10 - Region X,11 - Region XI,12 - Region XII,13 - NCR / Metro Manila,14 - CAR,15 - ARMM,16 - CARAGA"</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for City/Municipality. The input should have 2 to 255 characters. Quezon City" sqref="C10" xr:uid="{A7B44C13-CC9B-48EF-9219-BA89D841E9CB}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for City/Municipality. The input should have 2 to 255 characters. Quezon City" sqref="C7" xr:uid="{A7B44C13-CC9B-48EF-9219-BA89D841E9CB}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Street. The input should have 2 to 255 characters. Bonifacio St" sqref="C9" xr:uid="{D2B2C59C-2C34-4FD6-95EF-F40570D4E386}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Street. The input should have 2 to 255 characters. Bonifacio St" sqref="C6" xr:uid="{D2B2C59C-2C34-4FD6-95EF-F40570D4E386}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Street. The input should have 2 to 255 characters. e.g. Bonifacio St" sqref="C8" xr:uid="{8044A54D-44F1-4952-8E6D-F5291CD8DDA0}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Street. The input should have 2 to 255 characters. e.g. Bonifacio St" sqref="C5" xr:uid="{8044A54D-44F1-4952-8E6D-F5291CD8DDA0}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Institution Name. The input should have 2 to 255 characters. e.g. UP Diliman" sqref="C5" xr:uid="{BD0E2F95-B282-405C-959F-4BB9F35564D6}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Institution Name. The input should have 2 to 255 characters. e.g. UP Diliman" sqref="C2" xr:uid="{BD0E2F95-B282-405C-959F-4BB9F35564D6}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
@@ -1284,329 +1264,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88610196-5A05-47D3-9B46-2550DAD79E8C}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" activeCellId="2" sqref="B14:B1048576 B1 B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" style="26" customWidth="1"/>
-    <col min="7" max="9" width="18.7109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" style="26" customWidth="1"/>
-    <col min="13" max="13" width="34.5703125" style="26" customWidth="1"/>
-    <col min="14" max="15" width="18.85546875" style="26" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="13" customWidth="1"/>
+    <col min="7" max="9" width="18.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" style="13" customWidth="1"/>
+    <col min="14" max="15" width="18.85546875" style="13" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-    </row>
-    <row r="2" spans="1:15" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
     <row r="4" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="17" t="s">
+      <c r="A4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="C7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="1:15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="D7" s="10">
+        <v>100200</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="G7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="22">
-        <v>100200</v>
-      </c>
-      <c r="E10" s="22">
-        <v>3</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="H7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="I7" s="10">
+        <v>130</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="L7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="22">
-        <v>130</v>
-      </c>
-      <c r="J10" s="22">
-        <v>1</v>
-      </c>
-      <c r="K10" s="22" t="s">
+      <c r="M7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="N7" s="10">
+        <v>14.659934</v>
+      </c>
+      <c r="O7" s="10">
+        <v>121.07028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="C8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="22">
+      <c r="D8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="10">
         <v>14.659934</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O8" s="10">
         <v>121.07028</v>
       </c>
     </row>
-    <row r="11" spans="1:15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="22">
-        <v>3</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="22">
-        <v>2</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="22" t="s">
+    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="22">
-        <v>14.659934</v>
-      </c>
-      <c r="O11" s="22">
-        <v>121.07028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1634,382 +1575,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="C2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="D2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="12">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="H2" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="12">
+        <v>60</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="12">
+        <v>70</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="12">
         <v>80</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="24">
-        <v>50</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="24">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="24">
-        <v>60</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="24">
-        <v>2</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="F5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="12">
         <v>90</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="24">
-        <v>70</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="24">
-        <v>3</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="24">
-        <v>80</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="F6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="24">
-        <v>90</v>
-      </c>
-      <c r="F6" s="24" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="24" t="s">
+      <c r="C7" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="D7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="24" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="24" t="s">
+      <c r="C8" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="D8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="C9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="D9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="24" t="s">
+      <c r="C10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="D10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="C12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="D12" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="C13" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="D13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="C14" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="D14" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="24" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24" t="s">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="24" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="24" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/public/templates/Form-A-Themeplate.xlsx
+++ b/public/templates/Form-A-Themeplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OJT\Desktop\Projects\Hemis\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F8D46-A65D-46E0-B2C9-A7F40A9E940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF842D55-F43B-48F8-AFD7-F6FB463D5AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1409E611-1083-4AAA-A278-1A90104EBD13}"/>
+    <workbookView xWindow="11265" yWindow="1560" windowWidth="11895" windowHeight="11250" xr2:uid="{1409E611-1083-4AAA-A278-1A90104EBD13}"/>
   </bookViews>
   <sheets>
     <sheet name="FORM A1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
   <si>
     <t>DATA ITEMS</t>
   </si>
@@ -435,13 +435,19 @@
   </si>
   <si>
     <t>SUC-NF-FORM-A</t>
+  </si>
+  <si>
+    <t>HEMIS DATA COLLECTION</t>
+  </si>
+  <si>
+    <t>FORM A1: INSTITUTIONAL PROFILE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +502,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -582,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -660,6 +673,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5BF25A-3931-43C9-9AEE-FBB0ADD535A4}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -990,66 +1013,57 @@
     <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="23"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>3</v>
@@ -1058,7 +1072,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>3</v>
@@ -1067,7 +1081,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>3</v>
@@ -1076,16 +1090,16 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>3</v>
@@ -1094,7 +1108,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>3</v>
@@ -1103,25 +1117,25 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="23"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>3</v>
@@ -1130,7 +1144,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>3</v>
@@ -1139,25 +1153,25 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>3</v>
@@ -1166,7 +1180,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>3</v>
@@ -1175,85 +1189,112 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="24"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="23"/>
+      <c r="B25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="19">
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Institutional Name. The input should have 2 to 255 characters. UP Diliman" sqref="C3" xr:uid="{16454ECB-4396-4BF0-953C-3E3EA8AAF355}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Institutional Name. The input should have 2 to 255 characters. UP Diliman" sqref="C6" xr:uid="{16454ECB-4396-4BF0-953C-3E3EA8AAF355}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Education. Please choose one from the list. e.g. 50 - Baccalaureate Degree" sqref="C22" xr:uid="{D1AAB007-4DF2-4F84-A1A5-104D0C492B5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Education. Please choose one from the list. e.g. 50 - Baccalaureate Degree" sqref="C25" xr:uid="{D1AAB007-4DF2-4F84-A1A5-104D0C492B5A}">
       <formula1>"50 - Baccalaureate Degree,60 - Post-Grad Certificate or Diploma Program,70 - MD / LLB or equivalent,80 - Masters Degree or equivalent,90 - Doctorate Degree or equivalent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Position Title. Please choose one from the list. e.g. 10 - Director" sqref="C21" xr:uid="{4EAE9D29-F7BE-4EA3-B39C-A2E271FDD7B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Position Title. Please choose one from the list. e.g. 10 - Director" sqref="C24" xr:uid="{4EAE9D29-F7BE-4EA3-B39C-A2E271FDD7B7}">
       <formula1>"01 - President,02 - Chancellor,03 - Executive Director,04 - Dean,05 - Rector,06 - Head,07 - Administrator,08 - Principal,09 - Managing Director,10 - Director,11 - Chair,12 - Others[OIC etc],99 - Not known or not indicated"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Full Name. The input should have 2 to 255 characters. e.g. Lui, Ann G." sqref="C20" xr:uid="{657690D7-339C-4B67-A0FC-8DBCC0A97EE2}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Full Name. The input should have 2 to 255 characters. e.g. Lui, Ann G." sqref="C23" xr:uid="{657690D7-339C-4B67-A0FC-8DBCC0A97EE2}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year College. The data should be between1582 and 2019." sqref="C18" xr:uid="{00266910-8337-4B41-906D-F450896554E3}">
+    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year College. The data should be between1582 and 2019." sqref="C21" xr:uid="{00266910-8337-4B41-906D-F450896554E3}">
       <formula1>1582</formula1>
       <formula2>2019</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year Approved. The data should be between1582 and 2019." sqref="C17" xr:uid="{264F2388-EAC1-40D4-9503-7BB16BB60DD1}">
+    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year Approved. The data should be between1582 and 2019." sqref="C20" xr:uid="{264F2388-EAC1-40D4-9503-7BB16BB60DD1}">
       <formula1>1582</formula1>
       <formula2>2019</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Registration. The input should have 2 to 100 characters. e.g. 102897" sqref="C16" xr:uid="{E5FD9A3E-24A0-4B5C-8986-EB29EA31A339}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Registration. The input should have 2 to 100 characters. e.g. 102897" sqref="C19" xr:uid="{E5FD9A3E-24A0-4B5C-8986-EB29EA31A339}">
       <formula1>2</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year Established. The data should be between1582 and 2019." sqref="C15" xr:uid="{4290E348-03A8-4BDD-9912-0D0C8E4CB28B}">
+    <dataValidation type="whole" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Year Established. The data should be between1582 and 2019." sqref="C18" xr:uid="{4290E348-03A8-4BDD-9912-0D0C8E4CB28B}">
       <formula1>1582</formula1>
       <formula2>2019</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Web Page. The input should have 2 to 255 characters. e.g. www.up.edu.ph" sqref="C14" xr:uid="{5F591789-F841-47FC-B8C0-4BE2BE264890}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Web Page. The input should have 2 to 255 characters. e.g. www.up.edu.ph" sqref="C17" xr:uid="{5F591789-F841-47FC-B8C0-4BE2BE264890}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Email. The input should have 2 to 255 characters. e.g. email@up.edu.ph" sqref="C13" xr:uid="{D1D6CB51-81C7-4300-AA1C-E1B244AFA06D}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Email. The input should have 2 to 255 characters. e.g. email@up.edu.ph" sqref="C16" xr:uid="{D1D6CB51-81C7-4300-AA1C-E1B244AFA06D}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Head Tel. Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C12" xr:uid="{62D20E6C-7EBE-45A5-B293-68E00F3F7699}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Head Tel. Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C15" xr:uid="{62D20E6C-7EBE-45A5-B293-68E00F3F7699}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Fax Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C11" xr:uid="{B9AA8AA8-4188-4F30-B323-94A024B418A2}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Fax Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C14" xr:uid="{B9AA8AA8-4188-4F30-B323-94A024B418A2}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Telephone Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C10" xr:uid="{95A7ADD3-1348-4B3C-8604-8132CF627C62}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Telephone Number. The input should have 2 to 255 characters. e.g. (072) 700-4728, (072) 700-4729" sqref="C13" xr:uid="{95A7ADD3-1348-4B3C-8604-8132CF627C62}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Zip Code. The input should have exactly 4 characters. e.g. 1101" sqref="C9" xr:uid="{0DEFAA48-CD0B-47FC-B702-45D42EFD9FC5}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Zip Code. The input should have exactly 4 characters. e.g. 1101" sqref="C12" xr:uid="{0DEFAA48-CD0B-47FC-B702-45D42EFD9FC5}">
       <formula1>4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Region. Please choose one from the list. e.g. 5 - Region V" sqref="C8" xr:uid="{8A818CC2-EA5F-4629-8D77-EFAB8567CB77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Region. Please choose one from the list. e.g. 5 - Region V" sqref="C11" xr:uid="{8A818CC2-EA5F-4629-8D77-EFAB8567CB77}">
       <formula1>"1 - Region I,2 - Region II,3 - Region III,4A - Region IV-A,4B - Region IV-B,5 - Region V,6 - Region VI,7 - Region VII,8 - Region VIII,9 - Region IX,10 - Region X,11 - Region XI,12 - Region XII,13 - NCR / Metro Manila,14 - CAR,15 - ARMM,16 - CARAGA"</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for City/Municipality. The input should have 2 to 255 characters. Quezon City" sqref="C7" xr:uid="{A7B44C13-CC9B-48EF-9219-BA89D841E9CB}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for City/Municipality. The input should have 2 to 255 characters. Quezon City" sqref="C10" xr:uid="{A7B44C13-CC9B-48EF-9219-BA89D841E9CB}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Street. The input should have 2 to 255 characters. Bonifacio St" sqref="C6" xr:uid="{D2B2C59C-2C34-4FD6-95EF-F40570D4E386}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Street. The input should have 2 to 255 characters. Bonifacio St" sqref="C9" xr:uid="{D2B2C59C-2C34-4FD6-95EF-F40570D4E386}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Street. The input should have 2 to 255 characters. e.g. Bonifacio St" sqref="C5" xr:uid="{8044A54D-44F1-4952-8E6D-F5291CD8DDA0}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Street. The input should have 2 to 255 characters. e.g. Bonifacio St" sqref="C8" xr:uid="{8044A54D-44F1-4952-8E6D-F5291CD8DDA0}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Institution Name. The input should have 2 to 255 characters. e.g. UP Diliman" sqref="C2" xr:uid="{BD0E2F95-B282-405C-959F-4BB9F35564D6}">
+    <dataValidation type="textLength" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Institution Name. The input should have 2 to 255 characters. e.g. UP Diliman" sqref="C5" xr:uid="{BD0E2F95-B282-405C-959F-4BB9F35564D6}">
       <formula1>2</formula1>
       <formula2>255</formula2>
     </dataValidation>
@@ -1266,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88610196-5A05-47D3-9B46-2550DAD79E8C}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
